--- a/data/trans_dic/P62A$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,79</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,38</t>
+          <t>0,0; 9,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 8,81</t>
+          <t>1,05; 9,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,09; 37,16</t>
+          <t>22,44; 36,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,49</t>
+          <t>0,0; 12,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,26</t>
+          <t>0,0; 19,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,14</t>
+          <t>1,75; 14,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 30,31</t>
+          <t>15,17; 31,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 5,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 9,29</t>
+          <t>0,98; 9,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,09</t>
+          <t>1,35; 8,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,28; 32,38</t>
+          <t>20,95; 32,17</t>
         </is>
       </c>
     </row>
@@ -869,57 +870,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,03</t>
+          <t>0,0; 6,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 10,38</t>
+          <t>1,24; 9,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,13; 41,71</t>
+          <t>25,33; 40,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 39,05</t>
+          <t>4,07; 40,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 41,73</t>
+          <t>10,21; 43,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 40,24</t>
+          <t>10,56; 39,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 33,85</t>
+          <t>17,43; 33,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,15</t>
+          <t>1,0; 9,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,55</t>
+          <t>3,09; 14,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 16,7</t>
+          <t>5,01; 17,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,36; 35,19</t>
+          <t>24,44; 35,25</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1005,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,56</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 11,79</t>
+          <t>3,89; 12,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 11,58</t>
+          <t>3,25; 11,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,75; 38,5</t>
+          <t>25,15; 38,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 11,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 24,94</t>
+          <t>2,1; 23,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 32,72</t>
+          <t>15,25; 32,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 10,09</t>
+          <t>3,3; 9,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,98</t>
+          <t>4,1; 11,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,45; 34,18</t>
+          <t>23,62; 34,27</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,42</t>
+          <t>0,24; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,06</t>
+          <t>4,94; 11,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,22</t>
+          <t>5,84; 12,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,28; 32,4</t>
+          <t>23,18; 32,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,96</t>
+          <t>3,19; 12,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,48; 38,02</t>
+          <t>21,29; 38,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 25,12</t>
+          <t>12,19; 25,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 26,85</t>
+          <t>2,43; 27,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,69</t>
+          <t>1,03; 3,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,81; 16,33</t>
+          <t>9,84; 16,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 14,93</t>
+          <t>8,66; 14,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 28,22</t>
+          <t>7,13; 27,78</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,3</t>
+          <t>0,0; 5,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 12,57</t>
+          <t>4,13; 12,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,69</t>
+          <t>2,29; 8,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26,27; 41,75</t>
+          <t>26,71; 40,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 8,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,56</t>
+          <t>5,24; 13,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 17,76</t>
+          <t>8,43; 17,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,6; 29,26</t>
+          <t>20,69; 29,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,78</t>
+          <t>0,47; 5,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 11,05</t>
+          <t>5,44; 11,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,28; 12,66</t>
+          <t>6,33; 12,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>24,36; 32,02</t>
+          <t>24,57; 32,09</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 52,81</t>
+          <t>5,78; 54,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,86</t>
+          <t>0,0; 61,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,69; 87,73</t>
+          <t>31,23; 90,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,26</t>
+          <t>2,32; 7,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,91</t>
+          <t>7,66; 15,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 21,74</t>
+          <t>11,77; 21,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,73</t>
+          <t>8,16; 15,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,95</t>
+          <t>2,08; 7,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 17,01</t>
+          <t>8,38; 16,18</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 21,56</t>
+          <t>12,01; 21,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,03</t>
+          <t>10,48; 18,52</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,76</t>
+          <t>0,37; 1,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,61</t>
+          <t>5,04; 8,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,47</t>
+          <t>4,99; 8,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,94; 33,58</t>
+          <t>27,95; 33,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,97</t>
+          <t>3,21; 6,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,79</t>
+          <t>10,44; 15,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,9; 17,56</t>
+          <t>12,16; 17,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 21,69</t>
+          <t>8,62; 21,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,59</t>
+          <t>1,78; 3,64</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,25</t>
+          <t>8,11; 11,07</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 11,77</t>
+          <t>8,83; 11,8</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,32; 26,54</t>
+          <t>15,05; 26,59</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe otro tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2061</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3202</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29804</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14473</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6028</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>44277</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4635</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6412</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1036; 9537</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>23248; 38269</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5140</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7132</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>868; 7205</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9740; 20092</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6735</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1050; 10355</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2002; 12426</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35152; 53981</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1214</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3073</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>35453</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8805</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7918</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14847</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4415</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10019</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10991</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>50299</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6533</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>983; 7722</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27303; 43803</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1053; 10572</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3813; 16139</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3842; 14550</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10519; 19979</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1020; 9649</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4104; 18830</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5793; 19724</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>41098; 59268</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1756</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12786</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11915</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40858</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4358</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11712</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1756</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14784</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16273</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>52570</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5338</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7206; 22249</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5647; 19755</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32979; 50631</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1834</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6918</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1032; 11539</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7875; 16837</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6091</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8063; 23930</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9139; 25786</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43166; 62622</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2918</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26163</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>30485</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81187</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7582</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33476</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25849</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31926</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10500</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>59639</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56333</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>113113</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>873; 8491</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17270; 39406</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20184; 42571</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>68404; 95023</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3610; 13806</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24663; 44501</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17617; 37374</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8042; 90466</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>4896; 17036</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>45818; 76189</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42472; 73179</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>44651; 174084</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>11162</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8694</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47230</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2661</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19087</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26348</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54773</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>30248</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35043</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>102002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4377</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6306; 19304</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4428; 16707</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>37680; 57248</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8890</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11867; 29667</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17375; 37041</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45822; 64389</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>873; 10836</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>20637; 42119</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25297; 48866</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>89070; 116339</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6647</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>11526</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>30681</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>39803</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22098</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11526</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>34557</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>41805</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28745</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1758</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>930; 8843</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5215</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3389; 9848</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6329; 20304</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>20616; 42105</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>29272; 53937</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16011; 30395</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5888; 19914</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23914; 46170</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>30880; 54617</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21687; 38333</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>57261</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>59372</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>241178</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>107101</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>149828</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>153337</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>166473</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>391007</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2687; 12510</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>43787; 74958</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>44882; 74836</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>220725; 264479</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18477; 38851</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>77770; 116024</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>89343; 127302</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>79732; 199283</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23379; 47818</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>130879; 178760</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>144181; 192774</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>258021; 455907</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P62A$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
